--- a/Info_Data.xlsx
+++ b/Info_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20390"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B51C8B-91EE-47C1-BA08-53F52B9C9C36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECD46D3-80DD-4820-9EEB-BF5A6902E7A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Variable</t>
   </si>
@@ -31,9 +31,6 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://asi-fsd-usda.optiam.us/Home</t>
-  </si>
-  <si>
     <t>UserName</t>
   </si>
   <si>
@@ -47,13 +44,19 @@
   </si>
   <si>
     <t>CaseNumber</t>
+  </si>
+  <si>
+    <t>"99900084444"</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +68,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,16 +104,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -383,7 +397,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -403,35 +419,39 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5">
-        <v>99900084444</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{74C36046-B64F-466A-B058-A9E4A4904936}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Info_Data.xlsx
+++ b/Info_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20390"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECD46D3-80DD-4820-9EEB-BF5A6902E7A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA3669E-8D6C-46DF-9623-9CF298341F94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,16 +40,16 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Vivekanand@11888</t>
-  </si>
-  <si>
     <t>CaseNumber</t>
   </si>
   <si>
-    <t>"99900084444"</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/</t>
+    <t>99900084444</t>
+  </si>
+  <si>
+    <t>http://54.209.60.238:1677/HOME/Login#/Users</t>
+  </si>
+  <si>
+    <t>RonyDSHMKH@11888</t>
   </si>
 </sst>
 </file>
@@ -108,12 +108,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -398,7 +399,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,7 +421,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -436,20 +437,20 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{74C36046-B64F-466A-B058-A9E4A4904936}"/>
+    <hyperlink ref="B2" r:id="rId1" location="/Users" xr:uid="{49B9EC8D-8192-4265-8B5D-63648F6AEC00}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Info_Data.xlsx
+++ b/Info_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20390"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA3669E-8D6C-46DF-9623-9CF298341F94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DC43F1-394C-4111-8C95-185414068D7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,10 +46,10 @@
     <t>99900084444</t>
   </si>
   <si>
-    <t>http://54.209.60.238:1677/HOME/Login#/Users</t>
-  </si>
-  <si>
-    <t>RonyDSHMKH@11888</t>
+    <t>Vivekanand@11888</t>
+  </si>
+  <si>
+    <t>https://asi-fsd-usda.optiam.us/Home</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +421,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -437,7 +437,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -449,10 +449,7 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="/Users" xr:uid="{49B9EC8D-8192-4265-8B5D-63648F6AEC00}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Info_Data.xlsx
+++ b/Info_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20390"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DC43F1-394C-4111-8C95-185414068D7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E956A325-0417-43F0-AB86-72C7DC68F78C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,9 +34,6 @@
     <t>UserName</t>
   </si>
   <si>
-    <t>vivekanand</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -46,10 +43,13 @@
     <t>99900084444</t>
   </si>
   <si>
-    <t>Vivekanand@11888</t>
-  </si>
-  <si>
     <t>https://asi-fsd-usda.optiam.us/Home</t>
+  </si>
+  <si>
+    <t>Vivek_SA</t>
+  </si>
+  <si>
+    <t>Vivekanand@2022</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +421,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -429,23 +429,23 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Info_Data.xlsx
+++ b/Info_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20390"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E956A325-0417-43F0-AB86-72C7DC68F78C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D98907-A578-41F0-AB24-8F2586FEC53C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,13 +43,13 @@
     <t>99900084444</t>
   </si>
   <si>
-    <t>https://asi-fsd-usda.optiam.us/Home</t>
-  </si>
-  <si>
-    <t>Vivek_SA</t>
-  </si>
-  <si>
-    <t>Vivekanand@2022</t>
+    <t>http://54.209.60.238:1677/Home</t>
+  </si>
+  <si>
+    <t>Amitthakur</t>
+  </si>
+  <si>
+    <t>Aamit55555000@</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Info_Data.xlsx
+++ b/Info_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20390"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E956A325-0417-43F0-AB86-72C7DC68F78C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A9865D-D174-4145-85E6-7137F7D5492E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,13 +43,13 @@
     <t>99900084444</t>
   </si>
   <si>
+    <t>Vivekanand@2022</t>
+  </si>
+  <si>
+    <t>Vivek_SA</t>
+  </si>
+  <si>
     <t>https://asi-fsd-usda.optiam.us/Home</t>
-  </si>
-  <si>
-    <t>Vivek_SA</t>
-  </si>
-  <si>
-    <t>Vivekanand@2022</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +421,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -437,7 +437,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">

--- a/Info_Data.xlsx
+++ b/Info_Data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A9865D-D174-4145-85E6-7137F7D5492E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE87830-9511-4E0C-960A-47717E4C4322}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>CaseNumber</t>
   </si>
   <si>
-    <t>99900084444</t>
-  </si>
-  <si>
     <t>Vivekanand@2022</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>https://asi-fsd-usda.optiam.us/Home</t>
+  </si>
+  <si>
+    <t>7755000002</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +421,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -429,7 +429,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -437,7 +437,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -445,7 +445,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Info_Data.xlsx
+++ b/Info_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE87830-9511-4E0C-960A-47717E4C4322}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885CEF1C-BEFD-4043-BFC2-180A7A082BAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
     <t>https://asi-fsd-usda.optiam.us/Home</t>
   </si>
   <si>
-    <t>7755000002</t>
+    <t>7755000003</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Info_Data.xlsx
+++ b/Info_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885CEF1C-BEFD-4043-BFC2-180A7A082BAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263B8692-1349-4D64-AA14-BE4B6FB298BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,16 +40,16 @@
     <t>CaseNumber</t>
   </si>
   <si>
+    <t>7755000005</t>
+  </si>
+  <si>
+    <t>https://asi-fsd-usda.optiam.us/Home</t>
+  </si>
+  <si>
+    <t>Vivek_SA</t>
+  </si>
+  <si>
     <t>Vivekanand@2022</t>
-  </si>
-  <si>
-    <t>Vivek_SA</t>
-  </si>
-  <si>
-    <t>https://asi-fsd-usda.optiam.us/Home</t>
-  </si>
-  <si>
-    <t>7755000003</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +421,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -429,7 +429,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -437,7 +437,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -445,7 +445,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Info_Data.xlsx
+++ b/Info_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{263B8692-1349-4D64-AA14-BE4B6FB298BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D740F67-2ED8-46CD-9D1A-DB8DAD01D51E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t>CaseNumber</t>
   </si>
   <si>
-    <t>7755000005</t>
-  </si>
-  <si>
     <t>https://asi-fsd-usda.optiam.us/Home</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>Vivekanand@2022</t>
+  </si>
+  <si>
+    <t>7755000006</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +421,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -429,7 +429,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -437,7 +437,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -445,7 +445,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Info_Data.xlsx
+++ b/Info_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D740F67-2ED8-46CD-9D1A-DB8DAD01D51E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33078A1-4BFE-496B-A832-3D4E723DCD8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,16 +40,16 @@
     <t>CaseNumber</t>
   </si>
   <si>
-    <t>https://asi-fsd-usda.optiam.us/Home</t>
-  </si>
-  <si>
-    <t>Vivek_SA</t>
-  </si>
-  <si>
-    <t>Vivekanand@2022</t>
-  </si>
-  <si>
     <t>7755000006</t>
+  </si>
+  <si>
+    <t>vivekanand</t>
+  </si>
+  <si>
+    <t>Deshmukh@11888</t>
+  </si>
+  <si>
+    <t>https://dcams.hecmoptiam.com/Home</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +421,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -445,7 +445,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Info_Data.xlsx
+++ b/Info_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33078A1-4BFE-496B-A832-3D4E723DCD8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755DB1CF-B7FE-43AC-A237-26400A456E14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Variable</t>
   </si>
@@ -43,13 +43,16 @@
     <t>7755000006</t>
   </si>
   <si>
-    <t>vivekanand</t>
-  </si>
-  <si>
-    <t>Deshmukh@11888</t>
-  </si>
-  <si>
-    <t>https://dcams.hecmoptiam.com/Home</t>
+    <t>Vivek_SA</t>
+  </si>
+  <si>
+    <t>Vivekanand@2022</t>
+  </si>
+  <si>
+    <t>https://asi-fsd-usda.optiam.us/Home</t>
+  </si>
+  <si>
+    <t>CaseNumber2</t>
   </si>
 </sst>
 </file>
@@ -396,15 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -448,6 +451,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Info_Data.xlsx
+++ b/Info_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{755DB1CF-B7FE-43AC-A237-26400A456E14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3573502-DF65-4F6F-9775-E76FC0898B2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,16 +43,16 @@
     <t>7755000006</t>
   </si>
   <si>
-    <t>Vivek_SA</t>
-  </si>
-  <si>
-    <t>Vivekanand@2022</t>
-  </si>
-  <si>
-    <t>https://asi-fsd-usda.optiam.us/Home</t>
-  </si>
-  <si>
     <t>CaseNumber2</t>
+  </si>
+  <si>
+    <t>https://smartnsc.com/Home</t>
+  </si>
+  <si>
+    <t>Aamit55555000@</t>
+  </si>
+  <si>
+    <t>Amitthakur</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,7 +424,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -432,7 +432,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -453,7 +453,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>

--- a/Info_Data.xlsx
+++ b/Info_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3573502-DF65-4F6F-9775-E76FC0898B2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38425CD8-1331-4F43-A1AB-F9A0A0FAFB21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Variable</t>
   </si>
@@ -46,13 +46,16 @@
     <t>CaseNumber2</t>
   </si>
   <si>
-    <t>https://smartnsc.com/Home</t>
-  </si>
-  <si>
-    <t>Aamit55555000@</t>
-  </si>
-  <si>
-    <t>Amitthakur</t>
+    <t>7755000007</t>
+  </si>
+  <si>
+    <t>Vivek_SA</t>
+  </si>
+  <si>
+    <t>Vivekanand@2022</t>
+  </si>
+  <si>
+    <t>https://asi-fsd-usda.optiam.us/Home</t>
   </si>
 </sst>
 </file>
@@ -402,7 +405,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,7 +427,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -432,7 +435,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -440,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -448,7 +451,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">

--- a/Info_Data.xlsx
+++ b/Info_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38425CD8-1331-4F43-A1AB-F9A0A0FAFB21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C05662-07FC-4538-8271-EADC41576F1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,13 +49,13 @@
     <t>7755000007</t>
   </si>
   <si>
-    <t>Vivek_SA</t>
-  </si>
-  <si>
-    <t>Vivekanand@2022</t>
-  </si>
-  <si>
-    <t>https://asi-fsd-usda.optiam.us/Home</t>
+    <t>Amitthakur</t>
+  </si>
+  <si>
+    <t>https://hecmoptiam.com/Home</t>
+  </si>
+  <si>
+    <t>Aamit5555500000@@</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,7 +427,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">

--- a/Info_Data.xlsx
+++ b/Info_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C05662-07FC-4538-8271-EADC41576F1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9118BF47-F87C-4B39-A204-6657127C8787}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Variable</t>
   </si>
@@ -40,15 +40,9 @@
     <t>CaseNumber</t>
   </si>
   <si>
-    <t>7755000006</t>
-  </si>
-  <si>
     <t>CaseNumber2</t>
   </si>
   <si>
-    <t>7755000007</t>
-  </si>
-  <si>
     <t>Amitthakur</t>
   </si>
   <si>
@@ -56,6 +50,18 @@
   </si>
   <si>
     <t>Aamit5555500000@@</t>
+  </si>
+  <si>
+    <t>https://smartnsc.com/</t>
+  </si>
+  <si>
+    <t>Aamit55555000@</t>
+  </si>
+  <si>
+    <t>7744000279</t>
+  </si>
+  <si>
+    <t>7755000008</t>
   </si>
 </sst>
 </file>
@@ -402,19 +408,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,48 +430,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{E936C6EB-F756-4A8B-8FE4-44F24C392264}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{39685802-C8A3-4001-8966-40815C779CB6}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{E79D8086-5A85-405D-9532-1BA86352F883}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{07D802F0-E813-4010-B6E9-2E1849BFBDC7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Info_Data.xlsx
+++ b/Info_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9118BF47-F87C-4B39-A204-6657127C8787}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598FD66A-7C04-477E-8E99-EC8E4BF708F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Variable</t>
   </si>
@@ -62,6 +62,15 @@
   </si>
   <si>
     <t>7755000008</t>
+  </si>
+  <si>
+    <t>https://asi-fsd-usda.optiam.us/Home</t>
+  </si>
+  <si>
+    <t>Vivekanand@2022</t>
+  </si>
+  <si>
+    <t>Vivek_SA</t>
   </si>
 </sst>
 </file>
@@ -408,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +431,7 @@
     <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,12 +439,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -443,13 +452,16 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -457,13 +469,16 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
+      <c r="B4" t="s">
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -471,8 +486,11 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -480,7 +498,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -494,8 +512,11 @@
     <hyperlink ref="B2" r:id="rId2" xr:uid="{39685802-C8A3-4001-8966-40815C779CB6}"/>
     <hyperlink ref="C2" r:id="rId3" xr:uid="{E79D8086-5A85-405D-9532-1BA86352F883}"/>
     <hyperlink ref="B4" r:id="rId4" xr:uid="{07D802F0-E813-4010-B6E9-2E1849BFBDC7}"/>
+    <hyperlink ref="D2" r:id="rId5" xr:uid="{EC5131B5-B10F-4AE7-9CD9-2E23DCA4683A}"/>
+    <hyperlink ref="E2" r:id="rId6" xr:uid="{8E18F4F4-F347-4FC7-8113-06BDBF048EE5}"/>
+    <hyperlink ref="E4" r:id="rId7" xr:uid="{1818E725-CF83-4181-A59F-AB9B68953ED7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Info_Data.xlsx
+++ b/Info_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20391"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598FD66A-7C04-477E-8E99-EC8E4BF708F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A18123F-F616-4943-BCE4-1B2F2B675F24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -461,7 +461,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -478,15 +478,15 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
     </row>
